--- a/dataSet/PC4_point.xlsx
+++ b/dataSet/PC4_point.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67DFCB0-E314-4B7B-938A-06BBE34D50A4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAA6E39-597F-4CAA-903A-D7BFE13E2D09}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="29100" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2625" yWindow="1350" windowWidth="21630" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,229 +422,229 @@
   <sheetData>
     <row r="1" spans="1:245" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>0.69801949650468398</v>
+        <v>0.78880279730355995</v>
       </c>
       <c r="B1" s="2">
-        <v>0.83374702334560802</v>
+        <v>0.87103691197887601</v>
       </c>
       <c r="C1" s="2">
-        <v>0.89513557759300899</v>
+        <v>0.93627137054652099</v>
       </c>
       <c r="D1" s="2">
-        <v>0.87151507800115202</v>
+        <v>0.985260639829725</v>
       </c>
       <c r="E1" s="2">
-        <v>0.99059494231654399</v>
+        <v>0.841992253622038</v>
       </c>
       <c r="F1" s="2">
-        <v>0.94803596741618301</v>
+        <v>0.77890178383836395</v>
       </c>
       <c r="G1" s="2">
-        <v>0.786758533102494</v>
+        <v>0.836531971859926</v>
       </c>
       <c r="H1" s="2">
-        <v>0.37064823608355302</v>
+        <v>0.76102502086227397</v>
       </c>
       <c r="I1" s="2">
-        <v>0.86518182387142095</v>
+        <v>0.88998255926026104</v>
       </c>
       <c r="J1" s="2">
-        <v>0.21436386472555499</v>
+        <v>0.59012692006261702</v>
       </c>
       <c r="K1" s="2">
-        <v>0.121646817606347</v>
+        <v>0.88096299259428801</v>
       </c>
       <c r="L1" s="2">
-        <v>0.89946610670301597</v>
+        <v>0.77682929172954096</v>
       </c>
       <c r="M1" s="2">
-        <v>0.94787853951390799</v>
+        <v>0.65118232836519296</v>
       </c>
       <c r="N1" s="2">
-        <v>0.51921184614313598</v>
+        <v>0.22559865688628999</v>
       </c>
       <c r="O1" s="2">
-        <v>0.67181818466559595</v>
+        <v>0.67659668543200202</v>
       </c>
       <c r="P1" s="2">
-        <v>0.68624337503314303</v>
+        <v>0.157566102577789</v>
       </c>
       <c r="Q1" s="2">
-        <v>7.3612231232914299E-2</v>
+        <v>0.51184696550518105</v>
       </c>
       <c r="R1" s="2">
-        <v>0.82001744115456099</v>
+        <v>0.28663417491600202</v>
       </c>
       <c r="S1" s="2">
-        <v>0.99062039377959499</v>
+        <v>0.86949256496670801</v>
       </c>
       <c r="T1" s="2">
-        <v>0.93618255810577</v>
+        <v>0.39537892187837498</v>
       </c>
       <c r="U1" s="2">
-        <v>0.878000380120465</v>
+        <v>0.46122979799206099</v>
       </c>
       <c r="V1" s="2">
-        <v>0.77064308843293905</v>
+        <v>0.79790004936358006</v>
       </c>
       <c r="W1" s="2">
-        <v>0.97176982987918104</v>
+        <v>0.91333280092359903</v>
       </c>
       <c r="X1" s="2">
-        <v>0.87283028051269795</v>
+        <v>0.58220145264115697</v>
       </c>
       <c r="Y1" s="2">
-        <v>0.77751838950100505</v>
+        <v>0.73106922318203205</v>
       </c>
       <c r="Z1" s="2">
-        <v>0.30602005116799003</v>
+        <v>0.323085003833398</v>
       </c>
       <c r="AA1" s="2">
-        <v>0.278156527087219</v>
+        <v>0.140372395521353</v>
       </c>
       <c r="AB1" s="2">
-        <v>0.278156527087219</v>
+        <v>0.154573745535344</v>
       </c>
       <c r="AC1" s="2">
-        <v>0.12644293946936999</v>
+        <v>0.46421985618179901</v>
       </c>
       <c r="AD1" s="2">
-        <v>0.278156527087219</v>
+        <v>0.156594923560646</v>
       </c>
       <c r="AE1" s="2">
-        <v>0.60190857708735701</v>
+        <v>0.40579160419534299</v>
       </c>
       <c r="AF1" s="2">
-        <v>0.63106164708830104</v>
+        <v>0.18414580248759099</v>
       </c>
       <c r="AG1" s="2">
-        <v>0.42605283119968301</v>
+        <v>0.235589770451611</v>
       </c>
       <c r="AH1" s="2">
-        <v>0.106203937795726</v>
+        <v>0.33247738452894199</v>
       </c>
       <c r="AI1" s="2">
-        <v>1.7519503922287599E-2</v>
+        <v>0.41494090279809298</v>
       </c>
       <c r="AJ1" s="2">
-        <v>7.3924711949302904E-2</v>
+        <v>0.53385027738850899</v>
       </c>
       <c r="AK1" s="2">
-        <v>0.37856493280103198</v>
+        <v>0.20246397009952899</v>
       </c>
       <c r="AL1" s="2">
-        <v>7.5195039222762702E-2</v>
+        <v>0.20246397009952899</v>
       </c>
       <c r="AM1" s="2">
-        <v>0.17392471194952999</v>
+        <v>0.34799460681415401</v>
       </c>
       <c r="AN1" s="2">
-        <v>0.27392471194953</v>
+        <v>0.29595171101203699</v>
       </c>
       <c r="AO1" s="2">
-        <v>7.5195039222876403E-2</v>
+        <v>0.29302223049120302</v>
       </c>
       <c r="AP1" s="2">
-        <v>0.27992322976656298</v>
+        <v>0.47648987905714701</v>
       </c>
       <c r="AQ1" s="2">
-        <v>7.5195039222876403E-2</v>
+        <v>0.22204098572547001</v>
       </c>
       <c r="AR1" s="2">
-        <v>0.36996115381413103</v>
+        <v>0.202463970099302</v>
       </c>
       <c r="AS1" s="2">
-        <v>0.19064160941820699</v>
+        <v>0.19518341242905901</v>
       </c>
       <c r="AT1" s="2">
-        <v>0.104543875759986</v>
+        <v>0.348547957873449</v>
       </c>
       <c r="AU1" s="2">
-        <v>0.91635837419073596</v>
+        <v>0.419998830190081</v>
       </c>
       <c r="AV1" s="2">
-        <v>7.3924711949530306E-2</v>
+        <v>0.36803510147100799</v>
       </c>
       <c r="AW1" s="2">
-        <v>0.17800038012046501</v>
+        <v>0.12416684971947201</v>
       </c>
       <c r="AX1" s="2">
-        <v>2.8302805126980001E-3</v>
+        <v>0.29498201980174998</v>
       </c>
       <c r="AY1" s="2">
-        <v>0.47800038012046497</v>
+        <v>0.58244878640368802</v>
       </c>
       <c r="AZ1" s="2">
-        <v>0.17800038012046501</v>
+        <v>0.56147794478594903</v>
       </c>
       <c r="BA1" s="2">
-        <v>7.3924711949530306E-2</v>
+        <v>0.16195725957902499</v>
       </c>
       <c r="BB1" s="2">
-        <v>0.41780003801204602</v>
+        <v>0.116802878830299</v>
       </c>
       <c r="BC1" s="2">
-        <v>0.19780003801204599</v>
+        <v>0.236838408728999</v>
       </c>
       <c r="BD1" s="2">
-        <v>0.17800038012046501</v>
+        <v>0.15715497124210701</v>
       </c>
       <c r="BE1" s="2">
-        <v>0.19780003801204599</v>
+        <v>0.14025213472109499</v>
       </c>
       <c r="BF1" s="2">
-        <v>0.19351365132717999</v>
+        <v>0.394756163341696</v>
       </c>
       <c r="BG1" s="2">
-        <v>9.3513651327180002E-3</v>
+        <v>0.13046113315851901</v>
       </c>
       <c r="BH1" s="2">
-        <v>0.19351365132717999</v>
+        <v>0.55387838185902105</v>
       </c>
       <c r="BI1" s="2">
-        <v>0.19351365132717999</v>
+        <v>0.539640604657321</v>
       </c>
       <c r="BJ1" s="2">
-        <v>0.42537440884217398</v>
+        <v>0.42967382736870202</v>
       </c>
       <c r="BK1" s="2">
-        <v>0.39048633704726399</v>
+        <v>0.185759913550327</v>
       </c>
       <c r="BL1" s="2">
-        <v>0.639465637327987</v>
+        <v>0.21973973958756601</v>
       </c>
       <c r="BM1" s="2">
-        <v>0.396493727013421</v>
+        <v>0.49775817302416497</v>
       </c>
       <c r="BN1" s="2">
-        <v>0.73963843068582902</v>
+        <v>0.266649698062565</v>
       </c>
       <c r="BO1" s="2">
-        <v>0.40208217721792</v>
+        <v>0.49693366720423099</v>
       </c>
       <c r="BP1" s="2">
-        <v>0.40208217721792</v>
+        <v>0.38616793362228902</v>
       </c>
       <c r="BQ1" s="2">
-        <v>0.34954528984553601</v>
+        <v>0.193361060813003</v>
       </c>
       <c r="BR1" s="2">
-        <v>0.34954528984553601</v>
+        <v>0.12441259052343399</v>
       </c>
       <c r="BS1" s="2">
-        <v>0.121646817606347</v>
+        <v>0.21088205876503699</v>
       </c>
       <c r="BT1" s="2">
-        <v>0.114478489306861</v>
+        <v>0.60350808623977004</v>
       </c>
       <c r="BU1" s="2">
-        <v>0.380857017338399</v>
+        <v>0.23386241399811</v>
       </c>
       <c r="BV1" s="2">
-        <v>7.9923229766563894E-2</v>
+        <v>0.22204098572535699</v>
       </c>
       <c r="BW1" s="2">
-        <v>7.9923229766563894E-2</v>
+        <v>0.499915002873772</v>
       </c>
       <c r="BX1" s="1"/>
       <c r="BY1" s="1"/>
